--- a/out/policy_events_2026-02-17.xlsx
+++ b/out/policy_events_2026-02-17.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,19 +481,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>미국인 절반 이상 "경제 악화됐다"...민심 추락에 트럼프 "철강·알루미늄 관세 완화 검토"&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-16 16:03</t>
+          <t>2026-02-16 06:56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFAwY1VDY3FqSUU3SlpIWS1ubTdaNFdqc2tHcnZtQ0JITWVzMVZzS2VLdEtGR3lscF9sVmp2MjFlWEItWEtac2NpQmlabzlMTXc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFA5TEQ5cW5BZm1NQ1BfakYtTmdSTDNEcVhPRlBNQW45ZjV5MC05c1pVeldaQVhmZ3phM1c1QmlDbDEtS3AyaTV4RnhuT0gwbUVFai12QU1sNDllSWtPZVHSAYMBQVVfeXFMTnNwUjNXWFdSUVc1M2I4Zi1lMUpUZ25QNWpnTk53ZnFGcUgtRnN2RjBneVhCaWVlNk9xelVzSTlyZFN3VkNaZG5nRjZIbGw4UmdudVVCQUxLelJaU1JXVnVlVW55ZlNTTkV4QXU2OGRuRXN2LWxIZS1LbWlnTE85eHJ6Nzg?oc=5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>미국인 절반 이상 "경제 악화됐다"...민심 추락에 트럼프 "철강·알루미늄 관세 완화 검토" - v.daum.net</t>
+          <t>[YTN 실시간뉴스] '정국 구상' 이 대통령, 집값·관세 고심 - YTN</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -522,19 +522,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>관세 체납액 2년 연속 2조원 돌파…징수율은 6%대 불과&amp;nbsp;&amp;nbsp;국제신문</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-16 09:13</t>
+          <t>2026-02-16 06:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQZXoyMXlCUURxMk9wajNLUzNaTnI2SnVXWFRaWTRUcmxLVS02VEc2UC04YW9PUTJaaHlxM1lNQTBhUnhvZko4NmFnakI5b2ptc3dSRkxGUS1RX0hnNkYwVmh0MkNpREt1UDEyTXJNR3dFV21ianc2NVUtLUg0N2QyeWY1Q3VnOFBCUjNQbFRYU2tzRXc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUkFVX3lxTE9ZOFBlenNJMExIVzJONVhzbWVLR1BZYzN2UmRwYllSVm5mZHlDdXFkYXJzUzE3NmpKbEVDZlNWelpPVnhTdE9JSzRrWFVqcUUzekE?oc=5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>관세 체납액 2년 연속 2조원 돌파…징수율은 6%대 불과 - 국제신문</t>
+          <t>'11조 관세 폭탄' 맞을라…뒤숭숭한 K-자동차 - 노컷뉴스</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -563,19 +563,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>관세 체납액 2년 연속 2조 원대...징수율은 6%&amp;nbsp;&amp;nbsp;YTN</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-02-16 10:25</t>
+          <t>2026-02-15 22:46</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE94R2FVVTljUzFSR0lxXzExSUdKUFhteEJBbDFnbkQ1Q29HSktlN05YYy1iWW5SRFdxWGliYWJSOW9IV2dlbXNlVTFTNU1DY0NneDR5ZmZ4dmd4eUJWYXfSAYMBQVVfeXFMTjNna24xa1lland0dFJieXZreXNWOEpjVkJmU2ZPVjNPTmRfSnlZVUp0VFB4NmJoTjh1b3UyLUlEWEJaaTZRQWpjakVoRnotQUNYNGMySGVaR3FfNEw5bDloNFctZ1hXYmwyNGRHLV9RYnFzOGdaaS1vSHg4ZjBJUUdhbjQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFBvWE5FZ3Nwc19kdXRzcnQ5bFVxeEtVNFVHYmpJZng0eHg0Y25yT21OWFZJWkpkb1FmOTZBeDJ5QXI2U3N5X1luZEtsODVqLXM1WU1yVExyQldzTXBGbWfSAYMBQVVfeXFMTTlaOHNlQnU1VUxxUUhVT1JiZFV4Z0lNdUFiR3YxNG15aVRhLW5teC1hN0lYRVlVc015N1hsOU9ZNktoWlFXUDJCcEdhakZWQy1VY05zdUhReFNMUXVmTDRGRnhkbXJNdGdSM2FhMUVqRTdtVzJBeGplNDdOellaOVNxMms?oc=5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>관세 체납액 2년 연속 2조 원대...징수율은 6% - YTN</t>
+          <t>'정국 구상' 들어간 이 대통령...집값·관세 해법 고심 - YTN</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -604,19 +604,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>관세 체납액 2년째 2조원대…징수율은 6% 수준&amp;nbsp;&amp;nbsp;연합뉴스TV</t>
+          <t>“관세? 말투 짜증 나서 올렸어”…트럼프가 직접 밝힌 충격적 이유 [송현서의 디테일+]&amp;nbsp;&amp;nbsp;나우뉴스</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-16 13:16</t>
+          <t>2026-02-15 19:41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE1Sal85UWkzU05idHk4MHZ4RnJ3b2FyUngxVlFoQ2EtYXlITV9qTl9vcHdZTTFVSUZuMVBTMW9VZnhST1MtNlpjWXB2UG5ZUHdONWJWMmhGQm5tRktKWUx4RFZMTU8wR28?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTFAyQ2VGVTBjc0FDZC1ydldfbF96RGE5M05wVm1ZMGRTeTdZSlhidDhlSW1WVmpXNmNOVkFic3czbEk2TUxkeVd0bkxMeER6TEtUN3hVUW4zMjd1TjJxNjViSEFxQkZXQ010ZFlCV1Q5clM?oc=5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>관세 체납액 2년째 2조원대…징수율은 6% 수준 - 연합뉴스TV</t>
+          <t>“관세? 말투 짜증 나서 올렸어”…트럼프가 직접 밝힌 충격적 이유 [송현서의 디테일+] - 나우뉴스</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -645,19 +645,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>관세 넘어 '규제 손질' 요구…美, 한국 '비관세장벽' 전방위 압박&amp;nbsp;&amp;nbsp;아시아경제</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-02-16 13:30</t>
+          <t>2026-02-15 15:31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE5yWl82ckpHZ0tHTnBjaDFCQ3E1blZ4WWV1VmxVZV91ajVGaHpOOTEtZWxlOUV2M1Ztd3JyUFpnVmRaQW5BbFZZUjJPQnp6WW9QOHVqQ0pMSmdWVmNaOENLaw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMickFVX3lxTE85VE5ZVjlrVjZWbDVlR1ZZOFNGeFBwdDY0YTYxTDZmWGM2SHh1Z0cxSTZwaXBHMkZIRDBWVTVzTlowZnl4SkJkSHIxUEVSV2hDMVJ6cFlEak5SSE9DWWhiVkdOcUhBYWw5dTkxX05WUnc1d9IBdkFVX3lxTFB6akxRZEpFeEx2YUFVcjBDejBpRlhsT2tCQTNrWDRUVHlJWFMyT3ZJeU42N1p3b1p2V1JMdHJFWWVQcUt1cHRyM25lSXIyUjJ5QktxTGNfOVRQb0pXcEhEX19DR2NLVTJkTTh5dHBUZEE5M2VJYlE?oc=5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>관세 넘어 '규제 손질' 요구…美, 한국 '비관세장벽' 전방위 압박 - 아시아경제</t>
+          <t>코스피 급등 국면에 통상 압박···관세 리스크·미 판결 변수 - 시사저널e</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -686,19 +686,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>'오리무중' 美관세 재인상 압박…특별법 통과해도 안심 못해&amp;nbsp;&amp;nbsp;마켓인</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-16 16:12</t>
+          <t>2026-02-15 12:06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE0tdmgxWW1TV01NSldqT0k2XzllMzFHZWlLMmZncmZtd2dkQXI1bmxjUWRqM3dUUjM2LWNtdVIyRHdFb2JkZmtYZHJITlZEWEQxWFN1LUJ6Ri1RNDVZYWpnWTVaUFhPWFh4Q1pHZVYwMXJfLWs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUEFVX3lxTE5lSWxfTGpCY0NYR0Y1c01WVEZOMEM4NEhvR1U5SG9xRTFHcVlYUGNha3V0UmdybHN0X3hPVTBpZzZTam5acHItdGpKUTJjTUFz?oc=5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>'오리무중' 美관세 재인상 압박…특별법 통과해도 안심 못해 - 마켓인</t>
+          <t>이대통령, 설 연휴 외부 일정 최소화…부동산·관세 등 정국 구상 - 문화일보</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -727,19 +727,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>워싱턴 내부서도 흔들리는 관세…韓, 시나리오별 '비상계획' 가동&amp;nbsp;&amp;nbsp;뉴스1</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-02-16 09:00</t>
+          <t>2026-02-15 09:36</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE5jWFdoTUZwTDBKeGlnOFpza09qSXNBaXlON3oyV0JtY2NzWXAwazN2TU5haXJDTzAtcHNuTnZmSU1pYTZIWENXMmNndVlHQll3N1FiUg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTFB4WEdCejhISEZibFBibGF6SWxPSEpzOE1kMTNESWhZWDZPelN3VzAzTUVkdDZwQXNsUWdaTFJ6OVhFQ0RxN2FwSmtXdk1tWk9ZdnN3T29OckM0UdIBVEFVX3lxTE05STdubHF2ZGtaNnB0TG5DVXhuX3o4dTA1cTJhQzdSU1lxNTBETkhhSVczanBLNzFUdl9aNEd3dVZQNkdHcEZYdnFROXF3UU1mbmxPOA?oc=5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>워싱턴 내부서도 흔들리는 관세…韓, 시나리오별 '비상계획' 가동 - 뉴스1</t>
+          <t>"말투 건방져 관세 9% 올렸다"…'트럼프 불확실성' 상수(常數)된 통상환경 - 한국경제</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -768,19 +768,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>정상 간 합의도 뒤집힌다…"비즈니스식 접근으로 협상력 제고해야"[美 상호관세 1년③]&amp;nbsp;&amp;nbsp;뉴시스</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-02-16 08:00</t>
+          <t>2026-02-15 08:53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE0wSUdvSlF4Q2swMnJUc3hkUmtIRVA0Mld3MGpObWRfZXdPUlJ5QlRFbmluZ3NNUEx2NWVlcm5QQUtjdnJkeDBjRk0zMUl5akpkdWFUS1JRb3J5b24xeUlqaNIBeEFVX3lxTE1xZ254YThmQ1RfUVBhMFlWRXZaemE3cXk1bDVFR3RXRnNHZlphZzktZ3ZMaGNRZ2dlNlhiSXdpQ1RWTEI2SmNhN2E3dnZIR2FUTTN4US1YeFktU1lGcGo0VVdBQ2FvUUhyRDVwZDVaejhsb1pIWklRWA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTFB6N0pwVmY1dnR2bXY5Znl0TXRqQnhjYUlfSlN4TVpxaXhxc3VhVzZlVGJ5UTV6LWpRRzhDOGprOFdKOEpSRmZSa1hEaXJfMzRCcFFILWpDYWVZbExJai1UWnc3X09NNzhXNGfSAW5BVV95cUxNQ0ZNZjQzdXRORHN6SWp2cy1uRnh0NVJlZk1JcjlVR2w5N0pWSUtVbnJfRmZIVS1KcUdpbkpFcFBENVdPMWJvNjk1RW8zWGdEZmdqTkh0bGNibFpUczVuNG1NYlI4OHFfaTl0U2dLdw?oc=5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>정상 간 합의도 뒤집힌다…"비즈니스식 접근으로 협상력 제고해야"[美 상호관세 1년③] - 뉴시스</t>
+          <t>[기획-트럼프 2기 관세 리스크④] 관세 파고 앞 정부 대응책 충분한가 - 뉴시안</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -809,19 +809,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>작년 관세 체납액 2조원...고액 체납 151명이 1조9600억원 체납&amp;nbsp;&amp;nbsp;조선일보</t>
+          <t>Comprehensive up-to-date news coverage, aggregated from sources all over the world by Google News.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-02-16 10:21</t>
+          <t>2026-02-15 08:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNdXctWWdBbE9mUUhoT05QYXRPNE1aeTJ0ZzcycTh2bllLbGFCWHlNZ0R3dEZoZjdkcXhTQUFIWEhlbVV0dzN1U1hmdnl2QUU0cVhuOU85Q0lERjJnN1lPTXhfMUtIUTVuaVZ2b3c5c0kxLWdJQ3dJcUd1NWRXa3ZRV0Y3ZkxZMGpmc3hCU0p30gGiAUFVX3lxTE5EVE9kNXAtM2FfU1RtWlZDQkJ2aW1acmk5bVhvWnRIU0gzdXZ0WUgydmhXS2xLVzIycFVSTW9UYlVyVDBQZnJ0Snpmei1XSkV2VnBlUjk5dUtFTzR4c3FvdG9BdlRnVXNaTEFWWXUyZlBNSlg3Vjl3MzFKMkRlV3NlbjZoSjZXRWpnQU9wcW1mUzJEWXhpOGlTVDJ0V0cxUUViZw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE5BVEp2Qm5TZ3ltbFFyLTNOYndGMllWYUZJcVNmYnZ3ZjlJcGJxU25CN2VJcWlNMHo3RFc3M3pocGFDNVNNRlRSQVRCREFIM2wyRFBYbTRhZEFBeFJrQjU4V09RbUMxaXNtQ3p6eWNlR3VPRkE?oc=5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -837,505 +837,13 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>작년 관세 체납액 2조원...고액 체납 151명이 1조9600억원 체납 - 조선일보</t>
+          <t>트럼프 반도체 관세 예고1년...뭐가 바뀌었나 - 디지털투데이</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>관세 체납액 2년 연속 2조 원대...징수율은 6%&amp;nbsp;&amp;nbsp;YTN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-16 21:51</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE5oYnk0aW43OW9jZzJwaGRTYzRYSzZscjZnYmNhWF80VjlyaHU3U0ZSR2NDV25wYzdpSGVOVjBzaVpleUd2MWlWbTBieFN4UVpUdlRUTWlIWEp6TkVxZmfSAYMBQVVfeXFMT2s4bndTbFRlR2NmSGVMVWViUUlsd2NENnRrTlFwY01lVkhVbmF4dEx2RW96UmhHUzNDb19VcW9HNTF0ZXhiX3pkRnM3NHJYYVE0Ynl6dTFaaG5henB1TlpqRjRzbmlrU1MwRzQ2WFBDOUV6bnMxZWJVNE13dUJPekxUSzg?oc=5</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>관세 체납액 2년 연속 2조 원대...징수율은 6% - YTN</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>'오리무중' 美관세 재인상 압박…특별법 통과해도 안심 못해&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-02-16 16:12</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxQcVBjWXpOU2taSlJCanBDZ0lSeUVBMzRTbjloX1ctaFBRR19GWm9wYnl1MldkMEJiLUw1M29TdGl2cmdvQV9GMlIzYWRGT0hDcGx3NlBsbFdEaDVVNHp3WUx2T3dQcDBYWDNlYUxxNXppcFdrQjFHUHhlaHZ2ekItVw?oc=5</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>'오리무중' 美관세 재인상 압박…특별법 통과해도 안심 못해 - edaily.co.kr</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>워싱턴 내부서도 흔들리는 관세…韓, 시나리오별 '비상계획' 가동&amp;nbsp;&amp;nbsp;v.daum.net</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-02-16 09:02</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE5XOF9aTWphaE1xak51dWRmMzFxRW9GUGtQb2V0RW9NYTczT09ZMlAwUzRVOVUzV0x0VjBpa2RhamVmRFgwdGtqOU9sNGtSRzg?oc=5</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>워싱턴 내부서도 흔들리는 관세…韓, 시나리오별 '비상계획' 가동 - v.daum.net</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[원충만 기자의 시선] 한·미 반도체 관세 협정, 동맹의 시험대에 오르다&amp;nbsp;&amp;nbsp;내외뉴스통신</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-02-16 21:43</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE83c211UWsySmZ1cDMxZ1U0d3psZ1dLYTQyTVktamlnVHJia1M1bi1IZm9ZY0xrdUZwRWhzSG5OUHpKSVRHRWp2WjgzcU1iVUhCN2VrQmVNWE9KWTU0c1IzU29uV2lnR0JZTGxCOdIBcEFVX3lxTE1pRDJHY0pYVkptNmRWbUVXeHZNOFF1LWdxejdSaUwxd2t4emJRUXBlYkNHYzE1Q2l5cGR0dURiVk0tak5yZDdlNGN6VUo3dHV4RVpudF9DcFBUNkM0QUhhbHFid0R2b2VTcGdFQlVhNkY?oc=5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[원충만 기자의 시선] 한·미 반도체 관세 협정, 동맹의 시험대에 오르다 - 내외뉴스통신</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>“들여온 물건, 하역장에 묶일판” 트럼프 관세폭등에 美 수입업체 물건 못 빼는 사연은 [1일1트]&amp;nbsp;&amp;nbsp;헤럴드경제</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-16 10:00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTE42VHJCQU02X2ZDUzFLeWhxV1NfOUJpTktyY3FKbU0zS210a1VuSHBOTUQtUlFFczVWekJBU3lRYzBtc0V0YXNPSW1tSzczUVE2NnZHNGx3?oc=5</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>“들여온 물건, 하역장에 묶일판” 트럼프 관세폭등에 美 수입업체 물건 못 빼는 사연은 [1일1트] - 헤럴드경제</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>아이스하키 8강 대진 절반 확정…미국-캐나다 ‘관세 대전’ 열릴까&amp;nbsp;&amp;nbsp;중앙일보</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-02-16 16:32</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTFBwVW1fcFktWGo2cHhMVkJfbjJzVWVOR01zMVJFT1M0Y0lEdzNRQ3BzaG9RNFVaRnF4bXpnbnllMWhjUFYtRkJuUUQ4WnNwV2YyT1FCNXd3?oc=5</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>아이스하키 8강 대진 절반 확정…미국-캐나다 ‘관세 대전’ 열릴까 - 중앙일보</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>미국, 중국산 흑연 음극재에 160% 관세 부과 By Investing.com&amp;nbsp;&amp;nbsp;Investing.com 한국어</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-02-16 16:42</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTFBoY3pUM2d0WEZBR3NSOWVvMWpIX2pwX296X1BKMXNhRVMtOFY1eUtQQjBZaWRlWXJ3R0E0X09wTW1pbUxhS0FsWDd0S25jUWU1QkI3N3Z1cnE2Rk8xcXAxTVJYdkprNmZvNW9RNFlaSk4?oc=5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>미국, 중국산 흑연 음극재에 160% 관세 부과 By Investing.com - Investing.com 한국어</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>관세 불확실성 해소돼도 대미수출 1.37% 그쳐...지속 시 최대 9% 감소 가능성도&amp;nbsp;&amp;nbsp;아주경제</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-02-16 18:00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE9lYmZaVkpXMzdjYjdNcTdwX1VnTk0yc2ctNHNHdmZ2b3JjNWxuejFrSHNSeXIxZUdWdXVoU2R1VHNUbjFZMHZvVDhaTHFxRGhmcU83ZExjLWJ6Z9IBWEFVX3lxTE8ySTl1WW1BRGRCY3RveVZ4b0JuLTFZVW80OVRldFk5QTBGVWJMWEhSd1JMaVhrbHBRVFBNRUNub1BIVUJzaEROd0lVUy1WQTZGTk5neHZFbmg?oc=5</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>관세 불확실성 해소돼도 대미수출 1.37% 그쳐...지속 시 최대 9% 감소 가능성도 - 아주경제</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>주간 경제 뉴스: 트럼프 관세 역효과, 1월 13만 개 일자리 추가 등&amp;nbsp;&amp;nbsp;Benzinga</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-02-16 10:28</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMi1AJBVV95cUxOSFZnRkFRUVVySFNnZjFWSjRqa0QxUzFzQTZtMy1hOUtRSjNZb2NBY0Y5X1IyQ0hHZ2tGREpfMVd1Q3dlUkdRaWtneGs4R2lYNFQ1Z25VRGdmUmE3MDVZSlpWS043SFpWdmkyRjd2b3Z0ai1ISUZqeXhUZWUzM0dKbTRXVnBfbmc4QW41X2NOMWRkYU1ydnlFa0ctZDZMeWFwWXlFdHJsblJ2VDJfZUc3RHI0N2xNZmVLU28wano2WDJsSmZmdHRiYjZna0N3a1FlYS1QbEdrQXJKX1hhUDhIQU9BcElha1FhOThSdnUxVmg1UEJ6d3pxRV9HQnNsUGdMcTFEM1hhWVRYVVEyQ3cwSG1HaWFSWDAtaEJkOW9FOE1YYTI4VGFwal9mMFZpN1BnNm5lS05QT2JHRUd2NlJjeHhDUDBncUMwdG1sTEhhVngxRFJC?oc=5</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>주간 경제 뉴스: 트럼프 관세 역효과, 1월 13만 개 일자리 추가 등 - Benzinga</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>관세 체납 2조원대 고착화… 징수율 6%대 '제자리'&amp;nbsp;&amp;nbsp;서울와이어</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-02-16 09:56</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1iS3RmaU52T2lRSVVVbk8xalQ2SzFiM0xtanNvSGNwX3V0RURNdkdQTTM3SHNiVGxUYUE1MjJ3XzBBNGlDd0dqeG5CTnVPTVBRTlFiTTlHcXNfalhfbW9PLURWSU1ldVJBdjhN?oc=5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>관세 체납 2조원대 고착화… 징수율 6%대 '제자리' - 서울와이어</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>호주 FTA 체결로 고급차 세금 폐지와 수입 관세 철폐 가능성&amp;nbsp;&amp;nbsp;SpeedMe.ru</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-02-16 19:05</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxPM01GZnh0dGpzeWtqMVkyUWJxRDlkai1ieUdLV0VfZ2h6bnhTTERFYkpFUEhPZk84cmdSZ0tqb1Z1ZHZ1UGVObnZLWDdDWjF0bzVwWUdxa19wRUpTYlhTeTlmendmNGtXUl8tSmNzVzVKTnh0U0pZZnZfcGpJaDRpQlNEZDBmMVlPbk8zTHBDVzJNQVhvRm5NY0xsU19ZMEpUR2NUNndKRTRWblpKOThITdIBtAFBVV95cUxQX0xCb2dhZ2FEVnZiMDc1VTZPbVNGSnp2aGppWlVGWWVpUDBDZ0s3MkFGdmdwSDRsZXJIci04WE5DVWRTWlFKRTRqOU16RHNtMEU5dHVyY1MwekhpREFHR2xnZTZ0UjdEVk5zX3dhRFQzVWJjYUt6YlZHdzdGZEZzMkRqckgzekVmTDF0aGNRdW5HY1pPY0o3c3dYZEtqT1Q1VTJlb2l2SWdpQTlxTTY3STlOUFE?oc=5</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>중</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>호주 FTA 체결로 고급차 세금 폐지와 수입 관세 철폐 가능성 - SpeedMe.ru</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>韓美 상호관세 리스크 고조…정부 ′비상계획′ 가동&amp;nbsp;&amp;nbsp;알파경제</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-02-16 10:21</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE1MVHJ6T1U1TlVtd0NaT05KWVlXSVZtMkVVUlFQSzVWSm1iOTUtM3Yya0JDODlMbnQ4WU1DMGhxYTdsUnJLRjR4RWlUMnJ4dWI3c0w0U0p4N2pSb1Bwa1HSAW5BVV95cUxQYlh3blI1VHM3T2ZjYlAzUXpfdWgtSkFGSTBiVVppSkZMSWZkUmtUbmtMN2lNUlhvYlJlcXVGY2stZlU3dmFIVU54SmdLLTFBZGtsWmRqNHFBcmtOTjF5YVA5WDM1MkxnWEhRdHpMZw?oc=5</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>하</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>韓美 상호관세 리스크 고조…정부 ′비상계획′ 가동 - 알파경제</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
         <v>5</v>
       </c>
     </row>
